--- a/biology/Médecine/1556_en_santé_et_médecine/1556_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1556_en_santé_et_médecine/1556_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1556_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1556_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1556 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1556_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1556_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Fondation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'aumône Saint-Pouair, fondée en 1298 à Orléans près de l'église Saint-Paterne, prend le nom d'« Aumône des garçons », lesquels garçons elle se charge de loger, de nourrir, d'instruire et de placer chez des artisans[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'aumône Saint-Pouair, fondée en 1298 à Orléans près de l'église Saint-Paterne, prend le nom d'« Aumône des garçons », lesquels garçons elle se charge de loger, de nourrir, d'instruire et de placer chez des artisans.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1556_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1556_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,12 +555,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Giovanni Francesco Rota (it) († 1558), chirurgien aux armées de Jules III pendant la guerre de Parme, réédite l'ouvrage qu'il a fait paraître l'année précédente 1555 « Sur la nature et le traitement des blessures de guerre [en général] » (De bellicorum tormentorum vulnerum natura et curatione), en le complétant d'un traité « Sur les blessures causées par les arquebuses » (De Vulineribus sclopetorum[2],[3]).
-Pierre Franco, chirurgien lithotomiste, fait paraître à Lyon, chez Antoine Vincent, son Petitt traité de chirurgie[4].
-Le médecin et humaniste espagnol Andrés Laguna de Segovia (1499-1559) fait imprimer à Anvers, chez Plantin, son traité Sobre la cura y preservacion de la pestilencia (« Sur la préservation et le traitement de la peste »), qui n'est qu'un reflet des idées de l'époque[5].
-Juan Valverde de Amusco (en) (c.1525-c.1587) publie à Rome son Historia de la composicion del cuerpo humano[6],[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Giovanni Francesco Rota (it) († 1558), chirurgien aux armées de Jules III pendant la guerre de Parme, réédite l'ouvrage qu'il a fait paraître l'année précédente 1555 « Sur la nature et le traitement des blessures de guerre [en général] » (De bellicorum tormentorum vulnerum natura et curatione), en le complétant d'un traité « Sur les blessures causées par les arquebuses » (De Vulineribus sclopetorum,).
+Pierre Franco, chirurgien lithotomiste, fait paraître à Lyon, chez Antoine Vincent, son Petitt traité de chirurgie.
+Le médecin et humaniste espagnol Andrés Laguna de Segovia (1499-1559) fait imprimer à Anvers, chez Plantin, son traité Sobre la cura y preservacion de la pestilencia (« Sur la préservation et le traitement de la peste »), qui n'est qu'un reflet des idées de l'époque.
+Juan Valverde de Amusco (en) (c.1525-c.1587) publie à Rome son Historia de la composicion del cuerpo humano,.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1556_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1556_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Novembre : Jean Schyron (né à une date inconnue), chancelier de l'université de médecine de Montpellier[8].
-Louis de Bourges (né en 1482), médecin de Louis XII et Premier médecin de François Ier et d'Henri II, rois de France[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Novembre : Jean Schyron (né à une date inconnue), chancelier de l'université de médecine de Montpellier.
+Louis de Bourges (né en 1482), médecin de Louis XII et Premier médecin de François Ier et d'Henri II, rois de France.
 </t>
         </is>
       </c>
